--- a/tips.xlsx
+++ b/tips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbri364/Documents/GitHub/ResBaz24Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCB82DB-4F2B-CA46-A3B5-F4151A001F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963433C0-37DA-4645-9D47-B2A87185CD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="26560" xr2:uid="{5B21D526-5513-4445-9E92-8B7543BB9CCD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{5B21D526-5513-4445-9E92-8B7543BB9CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -971,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01275BE9-B230-9C41-B003-B8B7D34E2F8A}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EED32EC-5E40-7049-BD7B-64E30F3B9CBC}">
   <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>16.989999999999998</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1.01</v>
